--- a/04-数据库/01-MySQL/attachments-MySQL/01-MySQL数据库02-SQL基础-相关表格.xlsx
+++ b/04-数据库/01-MySQL/attachments-MySQL/01-MySQL数据库02-SQL基础-相关表格.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="数值类型" sheetId="1" r:id="rId1"/>
     <sheet name="字符串类型" sheetId="2" r:id="rId2"/>
     <sheet name="日期类型" sheetId="3" r:id="rId3"/>
+    <sheet name="字符串函数" sheetId="5" r:id="rId4"/>
+    <sheet name="数值函数" sheetId="6" r:id="rId5"/>
+    <sheet name="日期函数" sheetId="7" r:id="rId6"/>
+    <sheet name="流程控制函数" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>------------</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,26 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`float(m,d)`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单精度浮点型小数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`decimal(m,d)`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`double(m,d)`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`bigint`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大小(byte)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(x),定长的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不超过 255 个字符的二进制字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,15 +353,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;font color=red&gt;压缩严格的定点数，取值范围与double相同，但有效取值范围由M与D决定&lt;/font&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;font color=red&gt;VARCHAR(x),可变长的字符串，注意数据不能超过X位数&lt;/font&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;font color=red&gt;二进制形式的长文本数据。（图片、视频、音频）&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`BIGINT`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`FLOAT(m,d)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`DOUBLE(m,d)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`DECIMAL(m,d)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=red&gt;压缩严格的定点数，取值范围与double相同，但有效取值范围由M(精度)与D(标度)决定&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=red&gt;VARCHAR(x),可变长的字符串，注意数据不能超过X位数&lt;/font&gt;**性能较差**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(x),定长的字符串。**性能较好**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-----</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`CONCAT(S1,S2,...Sn)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`LOWER(str)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`UPPER(str)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`LPAD(str,n,pad)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`RPAD(str,n,pad)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`TRIM(str)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`SUBSTRING(str,start,len)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串拼接，将S1，S2，... Sn拼接成一个字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将字符串str全部转为小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将字符串str全部转为大写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左填充，用字符串pad对str的左边进行填充，达到n个字符串长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右填充，用字符串pad对str的右边进行填充，达到n个字符串长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉字符串头部和尾部的空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回从字符串str从start位置起的len个长度的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`CEIL(x)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`FLOOR(x)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`MOD(x,y)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`RAND()`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`ROUND(x,y)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回`x/y`的模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回0~1内的随机数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求参数x的四舍五入的值，保留y位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`CURDATE()`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`CURTIME()`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回当前时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`NOW()`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回当前日期和时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`DAY(date)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`DATE_ADD(date, INTERVAL exprtype)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定date的年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个日期/时间值加上一个时间间隔expr后的时间值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`YEAR(date)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定date的月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定date的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`MONTH(date)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`DATEDIFF(date1,date2)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回起始时间date1和结束时间date2之间的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`IF(value , t , f)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果value为true，则返回t，否则返回f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`IFNULL(value1 , value2)`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果value1不为空，返回value1，否则返回value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`CASE WHEN [ val1 ] THEN [res1] … ELSE [ default ] END`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果val1为true，返回res1，... 否则返回default默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果expr的值等于val1，返回res1，... 否则返回default默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`CASE [ expr ] WHEN [ val1 ] THEN [res1] … ELSE [ default ] END`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +757,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -858,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f>$G$1&amp;B2&amp;$G$1&amp;C2&amp;$G$1&amp;D2&amp;$G$1</f>
+        <f t="shared" ref="F2:F11" si="0">$G$1&amp;B2&amp;$G$1&amp;C2&amp;$G$1&amp;D2&amp;$G$1</f>
         <v>|类型|大小(byte)|说明|</v>
       </c>
     </row>
@@ -873,132 +1081,132 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f>$G$1&amp;B3&amp;$G$1&amp;C3&amp;$G$1&amp;D3&amp;$G$1</f>
+        <f t="shared" si="0"/>
         <v>|:------------:|:-----:|------------|</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>$G$1&amp;B4&amp;$G$1&amp;C4&amp;$G$1&amp;D4&amp;$G$1</f>
+        <f t="shared" si="0"/>
         <v>|`TINYINT`|1|&lt;font color=red&gt;很小的整数型，默认长度4&lt;/font&gt;|</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f>$G$1&amp;B5&amp;$G$1&amp;C5&amp;$G$1&amp;D5&amp;$G$1</f>
+        <f t="shared" si="0"/>
         <v>|`SMALLINT`|2|小的整型，默认长度6|</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>$G$1&amp;B6&amp;$G$1&amp;C6&amp;$G$1&amp;D6&amp;$G$1</f>
+        <f t="shared" si="0"/>
         <v>|`MEDIUMINT`|3|中等大小的整数，默认长度9|</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>$G$1&amp;B7&amp;$G$1&amp;C7&amp;$G$1&amp;D7&amp;$G$1</f>
+        <f t="shared" si="0"/>
         <v>|`INT`或`INTEGER`|4|&lt;font color=red&gt;普通大小的整数（占4字节），默认长度11&lt;/font&gt;|</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>$G$1&amp;B8&amp;$G$1&amp;C8&amp;$G$1&amp;D8&amp;$G$1</f>
-        <v>|`bigint`|8|占用的8个字节，默认长度20|</v>
+        <f t="shared" si="0"/>
+        <v>|`BIGINT`|8|占用的8个字节，默认长度20|</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="F9" s="4" t="str">
-        <f>$G$1&amp;B9&amp;$G$1&amp;C9&amp;$G$1&amp;D9&amp;$G$1</f>
-        <v>|`float(m,d)`|4|单精度浮点型小数|</v>
+        <f t="shared" si="0"/>
+        <v>|`FLOAT(m,d)`|4|单精度浮点型小数|</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>$G$1&amp;B10&amp;$G$1&amp;C10&amp;$G$1&amp;D10&amp;$G$1</f>
-        <v>|`double(m,d)`|8|&lt;font color=red&gt;双精度浮点型小数 d代表小数位数，m代表总位数 (整数位=m-d);&lt;br/&gt;比如：DOUBLE(5.2)， 数值共5位，其中小数为2位。&lt;/font&gt;|</v>
+        <f t="shared" si="0"/>
+        <v>|`DOUBLE(m,d)`|8|&lt;font color=red&gt;双精度浮点型小数 d代表小数位数，m代表总位数 (整数位=m-d);&lt;br/&gt;比如：DOUBLE(5.2)， 数值共5位，其中小数为2位。&lt;/font&gt;|</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>$G$1&amp;B11&amp;$G$1&amp;C11&amp;$G$1&amp;D11&amp;$G$1</f>
-        <v>|`decimal(m,d)`||&lt;font color=red&gt;压缩严格的定点数，取值范围与double相同，但有效取值范围由M与D决定&lt;/font&gt;|</v>
+        <f t="shared" si="0"/>
+        <v>|`DECIMAL(m,d)`||&lt;font color=red&gt;压缩严格的定点数，取值范围与double相同，但有效取值范围由M(精度)与D(标度)决定&lt;/font&gt;|</v>
       </c>
     </row>
   </sheetData>
@@ -1012,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1040,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1055,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1067,43 +1275,43 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|`CHAR(M)`|0-255|CHAR(x),定长的字符串|</v>
+        <v>|`CHAR(M)`|0-255|CHAR(x),定长的字符串。**性能较好**|</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|`VARCHAR(M)`|0-65535|&lt;font color=red&gt;VARCHAR(x),可变长的字符串，注意数据不能超过X位数&lt;/font&gt;|</v>
+        <v>|`VARCHAR(M)`|0-65535|&lt;font color=red&gt;VARCHAR(x),可变长的字符串，注意数据不能超过X位数&lt;/font&gt;**性能较差**|</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1112,13 +1320,13 @@
     </row>
     <row r="7" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1127,13 +1335,13 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1142,13 +1350,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1157,13 +1365,13 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1172,13 +1380,13 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1187,13 +1395,13 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1202,13 +1410,13 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1217,11 +1425,11 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1230,11 +1438,11 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1282,13 +1490,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -1303,16 +1511,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H8" si="0">$I$1&amp;B3&amp;$I$1&amp;C3&amp;$I$1&amp;D3&amp;$I$1&amp;E3&amp;$I$1&amp;F3&amp;$I$1</f>
@@ -1321,19 +1529,19 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1342,19 +1550,19 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1363,19 +1571,19 @@
     </row>
     <row r="6" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1384,19 +1592,19 @@
     </row>
     <row r="7" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1405,23 +1613,587 @@
     </row>
     <row r="8" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>|`TIMESTAMP`|4|1970~01~01 00:00:01 UTC~2038-01-19 03:14:07UTC|YYYYMMDD HHMMSS|&lt;font color=red&gt;混合日期和时间值，时间戳&lt;/font&gt;|</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>$F$1&amp;B2&amp;$F$1&amp;C2&amp;$F$1</f>
+        <v>|函数|功能说明|</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E10" si="0">$F$1&amp;B3&amp;$F$1&amp;C3&amp;$F$1</f>
+        <v>|:------------:|-----|</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`CONCAT(S1,S2,...Sn)`|字符串拼接，将S1，S2，... Sn拼接成一个字符串|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`LOWER(str)`|将字符串str全部转为小写|</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`UPPER(str)`|将字符串str全部转为大写|</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`LPAD(str,n,pad)`|左填充，用字符串pad对str的左边进行填充，达到n个字符串长度|</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`RPAD(str,n,pad)`|右填充，用字符串pad对str的右边进行填充，达到n个字符串长度|</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`TRIM(str)`|去掉字符串头部和尾部的空格|</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`SUBSTRING(str,start,len)`|返回从字符串str从start位置起的len个长度的字符串|</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>$F$1&amp;B2&amp;$F$1&amp;C2&amp;$F$1</f>
+        <v>|函数|功能说明|</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E10" si="0">$F$1&amp;B3&amp;$F$1&amp;C3&amp;$F$1</f>
+        <v>|:------------:|-----|</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`CEIL(x)`|向上取整|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`FLOOR(x)`|向下取整|</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`MOD(x,y)`|返回`x/y`的模|</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`RAND()`|返回0~1内的随机数|</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`ROUND(x,y)`|求参数x的四舍五入的值，保留y位小数|</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|||</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>$F$1&amp;B2&amp;$F$1&amp;C2&amp;$F$1</f>
+        <v>|函数|功能说明|</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E11" si="0">$F$1&amp;B3&amp;$F$1&amp;C3&amp;$F$1</f>
+        <v>|:------------:|-----|</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`CURDATE()`|返回当前日期|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`CURTIME()`|返回当前时间|</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`NOW()`|返回当前日期和时间|</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`YEAR(date)`|获取指定date的年份|</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`MONTH(date)`|获取指定date的月份|</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`DAY(date)`|获取指定date的日期|</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`DATE_ADD(date, INTERVAL exprtype)`|返回一个日期/时间值加上一个时间间隔expr后的时间值|</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`DATEDIFF(date1,date2)`|返回起始时间date1和结束时间date2之间的天数|</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>$F$1&amp;B2&amp;$F$1&amp;C2&amp;$F$1</f>
+        <v>|函数|功能说明|</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E11" si="0">$F$1&amp;B3&amp;$F$1&amp;C3&amp;$F$1</f>
+        <v>|:------------:|-----|</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`IF(value , t , f)`|如果value为true，则返回t，否则返回f|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`IFNULL(value1 , value2)`|如果value1不为空，返回value1，否则返回value2|</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`CASE WHEN [ val1 ] THEN [res1] … ELSE [ default ] END`|如果val1为true，返回res1，... 否则返回default默认值|</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`CASE [ expr ] WHEN [ val1 ] THEN [res1] … ELSE [ default ] END`|如果expr的值等于val1，返回res1，... 否则返回default默认值|</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|||</v>
       </c>
     </row>
   </sheetData>
